--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\DatathonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E388F292-A6DF-42B4-994A-09AA345FB7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D379E0A4-2126-4A64-8683-FD0590C7B38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="3855" windowWidth="25965" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
